--- a/HW1/test_data.xlsx
+++ b/HW1/test_data.xlsx
@@ -424,19 +424,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>UmGYxI8RMGDSxidP1Ri8.jpg</t>
+          <t>fRdyehkROOibEgXMO0SW.jpg</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>uBaYljOF65Kjo7zU9qMl.jpg</t>
+          <t>25frB1WdoEnZGsyMnwmG.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -448,43 +448,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IkakoEgMAAx1z9DNxWgO.jpg</t>
+          <t>AYKr7wPyIlN14MhSWiLA.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>e75vuASNFCppxYGbOHBJ.jpg</t>
+          <t>GeEGPSGMpRG4dGL5f8ZZ.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>k6qb8zbeBH75FVrNdnT2.jpg</t>
+          <t>i8skiyl88TAq86zPBz00.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q0ov29KRrqkPzybthCy2.jpg</t>
+          <t>TSxGRKbhNb5yuoAGOeE2.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,259 +496,259 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NAKXi7EKPSfgikQOUCOz.jpg</t>
+          <t>4IC5mnzJrD7YHojqFdSn.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EAXYnoaHfyYu5SqHa12b.jpg</t>
+          <t>y82Sjafu1iinKfJPXdcK.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TRuIvzFfNKrreV1LJnW2.jpg</t>
+          <t>Nsj6hPxfc6edtHW9dIX4.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Dingo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6iHs2Wip1dNaJvsYkP7j.jpg</t>
+          <t>XmkHF1hHCpEgdKGOixhA.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Knvx36ZQ19tR5CW6zRVE.jpg</t>
+          <t>bw1xB6RKb90RcITTggJ6.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WsQweOQlyBFeI90tcjkv.jpg</t>
+          <t>EEh4nIaGdTdgUxNSI1Ya.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Beagle</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TSxGRKbhNb5yuoAGOeE2.jpg</t>
+          <t>OeX5Ot6lE3bgP0RXaTna.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sH8vGST6huuhA6TOBWa2.jpg</t>
+          <t>tNqxAFEEoMJVHMkrRBDA.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25frB1WdoEnZGsyMnwmG.jpg</t>
+          <t>YNMi0O5OwbH5kPDz1cTF.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23gXLPttrkxVXSkC6YPy.jpg</t>
+          <t>wXBvTJh3TX25BwuZ4Kll.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LjMslbnS1VMwNno8am5f.jpg</t>
+          <t>rANSzIAxWICVRMIrPLLd.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ONRU6qbmjmTeAQJVEKMB.jpg</t>
+          <t>xtAKvt357y0Y2E8NiWvo.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OeMuS0P0cjhWwwYOAh8s.jpg</t>
+          <t>P80lwxyWUfeQFrclktfZ.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>p47JRPuvt3rRDOiqlxZg.jpg</t>
+          <t>kcIaYnHkcYPY6xpq5Ue7.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BNz2NjSjBOvjn9t3Stgh.jpg</t>
+          <t>ThqgKcHlCi2Sw7X0NmeF.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7EmbZ2d0MtxxUVQwXxbl.jpg</t>
+          <t>ppgsnA27vhVF92nDmTYo.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P80lwxyWUfeQFrclktfZ.jpg</t>
+          <t>aglgre6QU4owIaNY1XPp.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B6z6CxOZ0Ec6P4NAq58U.jpg</t>
+          <t>0Oi1cqNvHD3EMQ5nuy4Z.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1UxreplO34TpR3sOKZRe.jpg</t>
+          <t>Nfc9gPlXP9iIMVzAWJ6N.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZZPz5LmJQ7LipdDM2d2I.jpg</t>
+          <t>HwRBowfJiZ96tu5YBdZy.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TZjyGKo0rQCGEFN5QOGN.jpg</t>
+          <t>EAXYnoaHfyYu5SqHa12b.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6bg3kujqqPHv7dpDAg0B.jpg</t>
+          <t>b6dLcYK1q8MrHrayeJwW.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bKLwTvQ2Wg2Nh9CnymSs.jpg</t>
+          <t>42T09O1pHH0rbi8J0ZMp.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,235 +772,235 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sAlmzhwHvlfahq6GT9WE.jpg</t>
+          <t>TRuIvzFfNKrreV1LJnW2.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAY3XhaVyWkU2VNeDY3z.jpg</t>
+          <t>HqJcU6234C8aqpsWogsg.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zxJUczli7baULBcKUFnN.jpg</t>
+          <t>Bt45TAMd9tKdSLCfCHSs.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>i8skiyl88TAq86zPBz00.jpg</t>
+          <t>PrF1RdhStiKF4YVqBNM1.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HwRBowfJiZ96tu5YBdZy.jpg</t>
+          <t>5NdVuLUWCnWrHRAXn907.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>XPwLmYgGxwBMO6HDPuk9.jpg</t>
+          <t>U5F5ipke0eWxodqpTgcq.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DnKfMiVhpzlz35Fe9wKB.jpg</t>
+          <t>arYKM8yzCXCAoOe7n5zX.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S8xFPXBr78CU3o3mMPTd.jpg</t>
+          <t>J9bLq1wV0lBSPrbWH5L3.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ppgsnA27vhVF92nDmTYo.jpg</t>
+          <t>LVOSOvxQVJMJlfkPkg5h.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3ZkP9J5Gl9FEaWKjnd6c.jpg</t>
+          <t>fMG1YDelgqp5qalEortl.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>uPpziaUhk7IbnMFliZ9j.jpg</t>
+          <t>zXs26NtYZrj6NspetoVQ.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fwul0zq3cTcy2OrB6gIa.jpg</t>
+          <t>ORm9YBQhFHFvmKKFbEm8.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>OBZPMS8p1wUFWPCVBK2O.jpg</t>
+          <t>ppbTAu0J0R8rqGsfbzJe.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>rB7MUXPnRc3hgbDZZI6v.jpg</t>
+          <t>ggsQAouvG2wo5gCZEPZf.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PbEezMVKvdv6EhKsGTIc.jpg</t>
+          <t>O2kbcXZhWrUONSAj1UXY.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cWIb5OnBnxbYPe9hiHvY.jpg</t>
+          <t>bKLwTvQ2Wg2Nh9CnymSs.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Eiq2q2gZjJ0eIO16zTjN.jpg</t>
+          <t>21mKq1h0tio3ISXKraMl.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>F7Dd0iE0mKXDBMXM1d9L.jpg</t>
+          <t>YOJ7tfgp3yny68J5lpNu.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6Bw83ORzh4dXPTgsiZq7.jpg</t>
+          <t>JkEZREIYb6rOeHA1kobs.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZM3ItHIDeJ2pTzN4rvXC.jpg</t>
+          <t>KifmB4GUVpg4NMvuHmrY.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,115 +1012,115 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ZjRItVtDLDxxgFOWJzPQ.jpg</t>
+          <t>Ae0YLZk9f2sXHjSMXG7O.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>w8v3l85LylKeMCT033Af.jpg</t>
+          <t>2gTyvtgGpwsH4tF9iJyZ.jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>fPHRmb2rPdFtHUTg27pi.jpg</t>
+          <t>JB4Qb1XLWGibREAhp5xQ.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4IC5mnzJrD7YHojqFdSn.jpg</t>
+          <t>Y9JUGFW35lLiXjpoLfkr.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZSEV6vL7shJSvs4RSJze.jpg</t>
+          <t>swGdjDirtQ4ZPfULbYhE.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BUQOBqkLXa96JIJEC7Xm.jpg</t>
+          <t>aMqWkQBUm765TxB3hJNs.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>wk1zSTaSKZhiXDGtjj7T.jpg</t>
+          <t>JWMQgmHBtxwzBVO9apDY.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Pekinese</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>YEbfxrjtPcMTqUHUU4UA.jpg</t>
+          <t>rB7MUXPnRc3hgbDZZI6v.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>X5nghqUOSWTPdRQ5OMDO.jpg</t>
+          <t>WlTeLK4zPvBYHIRzmnfQ.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>U1r5oBwZvpP4ZPZs6elm.jpg</t>
+          <t>18UnlSVe9VZgxRILcnN7.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,343 +1132,343 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IrFuu9gH9yocis14wuT4.jpg</t>
+          <t>QOTW3ax4yot8GmkMkDOA.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5LVgtnyoL8d4zzc8UTcT.jpg</t>
+          <t>LgMp3dIrthNSJjbkaLx2.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Pekinese</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JWMQgmHBtxwzBVO9apDY.jpg</t>
+          <t>XDlJmhbzScfvfAvUDH1J.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6pM0tMRkdCczJ10hJhch.jpg</t>
+          <t>SQcdI3jZhVLwRAS4GEg4.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>YOJ7tfgp3yny68J5lpNu.jpg</t>
+          <t>6Bw83ORzh4dXPTgsiZq7.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>French Bulldog</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>vUODcdF0ZdCz9GriAspI.jpg</t>
+          <t>axtisUxQh2w6geE3LTOo.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>j57R7k4aE6VIOqMbZEL7.jpg</t>
+          <t>catK9W3pY7518Gg6QPK0.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LVOSOvxQVJMJlfkPkg5h.jpg</t>
+          <t>p47JRPuvt3rRDOiqlxZg.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>o0kSAYE4IhHpJskuGikg.jpg</t>
+          <t>ibxBVCplOjIJFQ4R9oq2.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>OXOsIbyBR6BfRdcVeJAr.jpg</t>
+          <t>vPthdCJA0biVIcNqn6VN.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Newfoundland</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sEXwF6SpDcCtWSjcRISm.jpg</t>
+          <t>l4o7Algd0JhFOeAkmWuC.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1vvD0WmlqzyjHY42fNWq.jpg</t>
+          <t>FMFfFyyubk3yDZuOpNSH.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DCepW7Sb8tJdHeSr4c73.jpg</t>
+          <t>WDHdfR2A1kHMLUwsq64e.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nzKR0Wmf6yGF3jdL4iiY.jpg</t>
+          <t>5o4R27aajdhvFxgUL3qu.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>07JI0uthLSrVgKgQxMSK.jpg</t>
+          <t>ZjyGNQOLP6XDs0h30cPm.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rKGTuZqh3mo6rVrZEAR9.jpg</t>
+          <t>UmGYxI8RMGDSxidP1Ri8.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>O2kbcXZhWrUONSAj1UXY.jpg</t>
+          <t>n9ruf66B9VKCKQ4mP402.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORm9YBQhFHFvmKKFbEm8.jpg</t>
+          <t>IrFuu9gH9yocis14wuT4.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sZtVpcFoTgtHPhgS0MuO.jpg</t>
+          <t>yntZwouvs7mep8tsK0xd.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>QKsTGDBGCwJjadXgjuM7.jpg</t>
+          <t>uPpziaUhk7IbnMFliZ9j.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5o4R27aajdhvFxgUL3qu.jpg</t>
+          <t>tDIbkPKYBWk9H0WBMsco.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>XmkHF1hHCpEgdKGOixhA.jpg</t>
+          <t>eyAYDDMeu7ovW5ixsQH4.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Y0dNzyOK0zcwDsbOHl9v.jpg</t>
+          <t>GKIsYVOrtbzeVhXF69iO.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RkbUxG5NJhLH1AoivcEN.jpg</t>
+          <t>CmWIkQN0trc1SBz21Hvi.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>XDlJmhbzScfvfAvUDH1J.jpg</t>
+          <t>TnnpcDYuhNWxFTdfGqG8.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rp5pEPxDTBPCuSsoqcyC.jpg</t>
+          <t>GyqW9Q81wOg5Z3UDNJSq.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>iI1pqzls4JNHR7rWJxAE.jpg</t>
+          <t>wVbfEqqnlbAuG00zG3QQ.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WxAYNvsbaRKKZRNORNWD.jpg</t>
+          <t>EpNx5LlmI7MrRItKhUHd.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cO9hJgAxhnetObg0uzUu.jpg</t>
+          <t>DCepW7Sb8tJdHeSr4c73.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,163 +1480,163 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ld93jJAEVRzy6rZufYst.jpg</t>
+          <t>XPwLmYgGxwBMO6HDPuk9.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>g3FjtrVnSyC0wQK5qexo.jpg</t>
+          <t>3IDymNpmjrHbi8Ll5XvA.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0Oi1cqNvHD3EMQ5nuy4Z.jpg</t>
+          <t>5nk4h3kv7wNmhbEqVeiO.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ibxBVCplOjIJFQ4R9oq2.jpg</t>
+          <t>1vvD0WmlqzyjHY42fNWq.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>swGdjDirtQ4ZPfULbYhE.jpg</t>
+          <t>horlz0hhHw9P4q7k3aXK.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SQcdI3jZhVLwRAS4GEg4.jpg</t>
+          <t>tfNuGhjvQbx3Io5BkRHU.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>French Bulldog</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ggsQAouvG2wo5gCZEPZf.jpg</t>
+          <t>kiRvRM5VP1qVLp8a2PST.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4od5xUCiWKmENg5UZ30F.jpg</t>
+          <t>ZG3l6GZwIPGHZkk7hBfK.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Fo5gtEOMM2XSLFnkZFe0.jpg</t>
+          <t>ntpM6Pr5s8GFDDMtYtWV.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>Dingo</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1jAwfoba7R6KnG35C0nI.jpg</t>
+          <t>vUODcdF0ZdCz9GriAspI.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1vrolAo8emQSv83VgX1o.jpg</t>
+          <t>1jAwfoba7R6KnG35C0nI.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>hYW4YKrgzVs2KprJAv7s.jpg</t>
+          <t>fVF9ivGxGpoq6yueD79A.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>y986cfiIAsXQ3uZ2zHJd.jpg</t>
+          <t>sEXwF6SpDcCtWSjcRISm.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sb0rH9HsfA0buS7V6zD5.jpg</t>
+          <t>WOY6zPV2rRtfZtrstJTc.jpg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,319 +1648,319 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nfc9gPlXP9iIMVzAWJ6N.jpg</t>
+          <t>0D69LppfiM6saZx8HnkE.jpg</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ZypKxV8qlhFucFs1GlKq.jpg</t>
+          <t>cLQNjqCB7HkSdpgHymNA.jpg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LgMp3dIrthNSJjbkaLx2.jpg</t>
+          <t>zoOghVcrCv7z4AfiY7dO.jpg</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>u1Zn92yPbqoyAeGQGJeI.jpg</t>
+          <t>vdAff0xcZZMCIIOKUbMG.jpg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>fMG1YDelgqp5qalEortl.jpg</t>
+          <t>WxAYNvsbaRKKZRNORNWD.jpg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bw1xB6RKb90RcITTggJ6.jpg</t>
+          <t>c36kVkqlagGQU0FZTHe6.jpg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5hIqxX4g8nWRVeOu2Nin.jpg</t>
+          <t>CebiLEfQPlLvl0vmil5b.jpg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>nY6d8CRwLGzXEEKxE8v9.jpg</t>
+          <t>SYvE0PV9DFSgkP7KJvki.jpg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>l4o7Algd0JhFOeAkmWuC.jpg</t>
+          <t>ydHx57lkwXRK1833ZxG3.jpg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>24ujTjneMqCO1DGxC3WI.jpg</t>
+          <t>YEbfxrjtPcMTqUHUU4UA.jpg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GyqW9Q81wOg5Z3UDNJSq.jpg</t>
+          <t>rp5pEPxDTBPCuSsoqcyC.jpg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>18UnlSVe9VZgxRILcnN7.jpg</t>
+          <t>Fo5gtEOMM2XSLFnkZFe0.jpg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IxljnswJWVfKSiu22dJo.jpg</t>
+          <t>sZtVpcFoTgtHPhgS0MuO.jpg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>UUcyg15mccEhGqqGjvFo.jpg</t>
+          <t>c36qh7pXBTW9oqhDLQ1r.jpg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>aglgre6QU4owIaNY1XPp.jpg</t>
+          <t>WsQweOQlyBFeI90tcjkv.jpg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WlTeLK4zPvBYHIRzmnfQ.jpg</t>
+          <t>4od5xUCiWKmENg5UZ30F.jpg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>wbfmZ1Ft2JuqiRtD2o6S.jpg</t>
+          <t>5epyvDsauBqN0fAsNGsk.jpg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GgAkv83AXljTalzGtTCu.jpg</t>
+          <t>BPFxKEwkwVrd4iWOK6IF.jpg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cNmISTpY61NM06tRSNzr.jpg</t>
+          <t>VPosFKwRpPd2Brxfkqxb.jpg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>COBLqmgk4nSBqX616Dy4.jpg</t>
+          <t>g3FjtrVnSyC0wQK5qexo.jpg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vs8gZOvUmWOKWABtAXZS.jpg</t>
+          <t>ZM3ItHIDeJ2pTzN4rvXC.jpg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>QOTW3ax4yot8GmkMkDOA.jpg</t>
+          <t>a5VaQlX9IeakcKLs5NkJ.jpg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ZG3l6GZwIPGHZkk7hBfK.jpg</t>
+          <t>wI1JVBtWmp1xoxqUE7oA.jpg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Rg2MK5m3y0U7YvVDgFH4.jpg</t>
+          <t>sH8vGST6huuhA6TOBWa2.jpg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>u2e8JG9PSLPFiZRgMYMu.jpg</t>
+          <t>rKGTuZqh3mo6rVrZEAR9.jpg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ZGxXMjfdRP2hVmuD72ld.jpg</t>
+          <t>Rg2MK5m3y0U7YvVDgFH4.jpg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jo34qln64i831RhLse9D.jpg</t>
+          <t>ftyV66leMZkrkb6SkqYn.jpg</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,91 +1972,91 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>wf35yvickkWKTUYm31Ke.jpg</t>
+          <t>Zg7Rl23zher1WD9bPDDW.jpg</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2x8hZwXQ6ek3TNRVUz6r.jpg</t>
+          <t>iY7XgOzXR7HMnykmiJjf.jpg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>iY7XgOzXR7HMnykmiJjf.jpg</t>
+          <t>TZjyGKo0rQCGEFN5QOGN.jpg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ydHx57lkwXRK1833ZxG3.jpg</t>
+          <t>Vs8gZOvUmWOKWABtAXZS.jpg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1pzpRRk4PxuAJSq8yTz0.jpg</t>
+          <t>7N2whQcQaT25dDWZ8B6e.jpg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>26WWAlpCvUaJ5JNChxOC.jpg</t>
+          <t>dxTEUSmqDevi21Q8L9IT.jpg</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>French Bulldog</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>JP8V25QU7PFcRXYKyQrv.jpg</t>
+          <t>ZjRItVtDLDxxgFOWJzPQ.jpg</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>axtisUxQh2w6geE3LTOo.jpg</t>
+          <t>S8xFPXBr78CU3o3mMPTd.jpg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>YQNbFx22nRuSd5NmzQU8.jpg</t>
+          <t>OrKl9zE6HhJpkWCbQwbP.jpg</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2080,43 +2080,43 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ANuo5nWlXj2Ah5LQv6sZ.jpg</t>
+          <t>WDVAYdGUIPOPIXiSv1LK.jpg</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EpNx5LlmI7MrRItKhUHd.jpg</t>
+          <t>Q0ov29KRrqkPzybthCy2.jpg</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>U5F5ipke0eWxodqpTgcq.jpg</t>
+          <t>j57R7k4aE6VIOqMbZEL7.jpg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NGyFAcB8U0uNdT3ZNXfc.jpg</t>
+          <t>m5ccnZBViGIfKNqN8vNq.jpg</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2128,79 +2128,79 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>jwvnV3P30lvIBuaRqfs3.jpg</t>
+          <t>SrB1BssNF9urLhTdOImj.jpg</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>eyAYDDMeu7ovW5ixsQH4.jpg</t>
+          <t>BUQOBqkLXa96JIJEC7Xm.jpg</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CdJ8k6zfLHGpz8UaMRtl.jpg</t>
+          <t>wk1zSTaSKZhiXDGtjj7T.jpg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>shuw9UMEMUN1nSvhfic0.jpg</t>
+          <t>sAlmzhwHvlfahq6GT9WE.jpg</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>WOY6zPV2rRtfZtrstJTc.jpg</t>
+          <t>PmgB7XvAdKCkYGhxlE5O.jpg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>a5VaQlX9IeakcKLs5NkJ.jpg</t>
+          <t>Mxf47zYDqDiVzETzEX8p.jpg</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>4EG2qg8sua4avKFSoeYg.jpg</t>
+          <t>nY6d8CRwLGzXEEKxE8v9.jpg</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2212,31 +2212,31 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>cLKNOuxRVGt6i5UA3eIe.jpg</t>
+          <t>pDSrWzYJgAVZ6kXWXy1f.jpg</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lePITfQ8EAHKgr8Dvzif.jpg</t>
+          <t>Lst1QOiPJfSwDCHqMIUP.jpg</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>OeX5Ot6lE3bgP0RXaTna.jpg</t>
+          <t>YHHKW3AZ9rwEw7ONo1fK.jpg</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2248,31 +2248,31 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MuOzKdvTXzU411cmm6Aw.jpg</t>
+          <t>24ujTjneMqCO1DGxC3WI.jpg</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6jKbUDUxDZWCk9W5qdos.jpg</t>
+          <t>kfSCuiJQF9TVAT9rsQiM.jpg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ej5Ec1svRZFfrCW45NHP.jpg</t>
+          <t>4EG2qg8sua4avKFSoeYg.jpg</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2284,67 +2284,67 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>cLQNjqCB7HkSdpgHymNA.jpg</t>
+          <t>o0kSAYE4IhHpJskuGikg.jpg</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>arYKM8yzCXCAoOe7n5zX.jpg</t>
+          <t>BLRw15OjfmN4iyuJ2Pri.jpg</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3IDymNpmjrHbi8Ll5XvA.jpg</t>
+          <t>QKsTGDBGCwJjadXgjuM7.jpg</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GMlJZOPLSTjP1Z4EoOon.jpg</t>
+          <t>hYW4YKrgzVs2KprJAv7s.jpg</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>rANSzIAxWICVRMIrPLLd.jpg</t>
+          <t>xgNT0RnHnTJNHIuTGh1g.jpg</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>kLfi0bN3D2Gr5xa9sq95.jpg</t>
+          <t>uBaYljOF65Kjo7zU9qMl.jpg</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2356,127 +2356,127 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CebiLEfQPlLvl0vmil5b.jpg</t>
+          <t>DnKfMiVhpzlz35Fe9wKB.jpg</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hi4xPwgVEcIDusWhoMTU.jpg</t>
+          <t>5hIqxX4g8nWRVeOu2Nin.jpg</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>OdFArQRtMxnPJNDBlvDB.jpg</t>
+          <t>lawooDFum3D76LJIj3ra.jpg</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PmgB7XvAdKCkYGhxlE5O.jpg</t>
+          <t>COBLqmgk4nSBqX616Dy4.jpg</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>21mKq1h0tio3ISXKraMl.jpg</t>
+          <t>OeMuS0P0cjhWwwYOAh8s.jpg</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ttq3ubczpbCX5aD0jcRo.jpg</t>
+          <t>ELHGy8lAG1cJ5tAWz0Cn.jpg</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>tNqxAFEEoMJVHMkrRBDA.jpg</t>
+          <t>HnpL5FUkcCTBYtIIj6Qh.jpg</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>dv5VDJ3366FnkT6TosCV.jpg</t>
+          <t>o9xOLag5uy1JlNJimA1x.jpg</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ntpM6Pr5s8GFDDMtYtWV.jpg</t>
+          <t>dVeFO8kJeEMMYATMEKxj.jpg</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Vp1DyjSe8vdTdq8znEcJ.jpg</t>
+          <t>xS7UxjreyHzMGS9zERFw.jpg</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HqJcU6234C8aqpsWogsg.jpg</t>
+          <t>OXOsIbyBR6BfRdcVeJAr.jpg</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2488,115 +2488,115 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KD9gn2MGj6eAjP4eMpiE.jpg</t>
+          <t>cLKNOuxRVGt6i5UA3eIe.jpg</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HnpL5FUkcCTBYtIIj6Qh.jpg</t>
+          <t>jwvnV3P30lvIBuaRqfs3.jpg</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Beagle</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KSAneCzQtDleHh9GZeav.jpg</t>
+          <t>nzKR0Wmf6yGF3jdL4iiY.jpg</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>fVF9ivGxGpoq6yueD79A.jpg</t>
+          <t>k45YDuHgbqFcSEGYfKWf.jpg</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>4kX0P9HVx58nOQoAm4U6.jpg</t>
+          <t>PbEezMVKvdv6EhKsGTIc.jpg</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2gTyvtgGpwsH4tF9iJyZ.jpg</t>
+          <t>DINx2P2j9NEzbez5LJLy.jpg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZjyGNQOLP6XDs0h30cPm.jpg</t>
+          <t>Ad2YyxSs4ekAScMp1RBe.jpg</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pekinese</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>9I1sr4QxakphlAIiPFEe.jpg</t>
+          <t>Knvx36ZQ19tR5CW6zRVE.jpg</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>oqKaUMkWyYI06QJNOBZM.jpg</t>
+          <t>KD9gn2MGj6eAjP4eMpiE.jpg</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Collie</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Y9JUGFW35lLiXjpoLfkr.jpg</t>
+          <t>kLfi0bN3D2Gr5xa9sq95.jpg</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,115 +2608,115 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>xqa7USxDBT5xsAC27tcR.jpg</t>
+          <t>u1Zn92yPbqoyAeGQGJeI.jpg</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>fRdyehkROOibEgXMO0SW.jpg</t>
+          <t>shuw9UMEMUN1nSvhfic0.jpg</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ZWT4s9wOrrw9wuxcDfmr.jpg</t>
+          <t>iI1pqzls4JNHR7rWJxAE.jpg</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NLRrgsbVp0YgbmST7hv5.jpg</t>
+          <t>ttq3ubczpbCX5aD0jcRo.jpg</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>rSZTyrayle0E6SjpL7BO.jpg</t>
+          <t>RkbUxG5NJhLH1AoivcEN.jpg</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RB8hKmgwNdO6pujHoBYM.jpg</t>
+          <t>ZGxXMjfdRP2hVmuD72ld.jpg</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>c36qh7pXBTW9oqhDLQ1r.jpg</t>
+          <t>y9LevUFfNgmpi6xXI02r.jpg</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>gVlH1WysnnCJhS5NtYUG.jpg</t>
+          <t>xd8s1GVi4JItqIVJVSoV.jpg</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dXAs57fLxTv1bfg9rrpr.jpg</t>
+          <t>YQNbFx22nRuSd5NmzQU8.jpg</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>WDVAYdGUIPOPIXiSv1LK.jpg</t>
+          <t>GMlJZOPLSTjP1Z4EoOon.jpg</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2728,127 +2728,127 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>tDIbkPKYBWk9H0WBMsco.jpg</t>
+          <t>WuWVbHJlodANxlkzsAIl.jpg</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tfNuGhjvQbx3Io5BkRHU.jpg</t>
+          <t>OdFArQRtMxnPJNDBlvDB.jpg</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ELHGy8lAG1cJ5tAWz0Cn.jpg</t>
+          <t>h1UfPJ1OUZCKZvWDhSNd.jpg</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Ux3DxZp5oL0XSaVkRqDp.jpg</t>
+          <t>pec6kdfsJa0TabaatOA4.jpg</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Mxf47zYDqDiVzETzEX8p.jpg</t>
+          <t>cNmISTpY61NM06tRSNzr.jpg</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>5nk4h3kv7wNmhbEqVeiO.jpg</t>
+          <t>DbZYh9jw4rMnE3yUqovY.jpg</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>xd8s1GVi4JItqIVJVSoV.jpg</t>
+          <t>lvH52Ol2kUZOgqVkKKPZ.jpg</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>YNMi0O5OwbH5kPDz1cTF.jpg</t>
+          <t>Eiq2q2gZjJ0eIO16zTjN.jpg</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>y48i249f8SIaFe0rN5uf.jpg</t>
+          <t>qWxJFStcr9dlIKliZ0yZ.jpg</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>jkmgLilg5tlN3Krp8Xcq.jpg</t>
+          <t>wf35yvickkWKTUYm31Ke.jpg</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>J9bLq1wV0lBSPrbWH5L3.jpg</t>
+          <t>t7bzRqat0kB7xuvSrZWu.jpg</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,79 +2860,79 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>8UNMKG1rgpizbHbf7sOH.jpg</t>
+          <t>dXAs57fLxTv1bfg9rrpr.jpg</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>zoOghVcrCv7z4AfiY7dO.jpg</t>
+          <t>ZypKxV8qlhFucFs1GlKq.jpg</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>xtAKvt357y0Y2E8NiWvo.jpg</t>
+          <t>KYb0ajbXIZwdCen8pyGB.jpg</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>m5ccnZBViGIfKNqN8vNq.jpg</t>
+          <t>6bg3kujqqPHv7dpDAg0B.jpg</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ftyV66leMZkrkb6SkqYn.jpg</t>
+          <t>ZSEV6vL7shJSvs4RSJze.jpg</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>jmFHs0U83f1c4CRigKhc.jpg</t>
+          <t>IxljnswJWVfKSiu22dJo.jpg</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>42T09O1pHH0rbi8J0ZMp.jpg</t>
+          <t>6pM0tMRkdCczJ10hJhch.jpg</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2944,55 +2944,55 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>y9LevUFfNgmpi6xXI02r.jpg</t>
+          <t>MuOzKdvTXzU411cmm6Aw.jpg</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>hHJARAYlKPUgGiuj2aXk.jpg</t>
+          <t>k6qb8zbeBH75FVrNdnT2.jpg</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BPFxKEwkwVrd4iWOK6IF.jpg</t>
+          <t>cWIb5OnBnxbYPe9hiHvY.jpg</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>GeEGPSGMpRG4dGL5f8ZZ.jpg</t>
+          <t>ONRU6qbmjmTeAQJVEKMB.jpg</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>DbZYh9jw4rMnE3yUqovY.jpg</t>
+          <t>XOjAFrSHTV2EwWdP07kU.jpg</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>q5900l3sA6N1FFREMlV8.jpg</t>
+          <t>gVlH1WysnnCJhS5NtYUG.jpg</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3016,103 +3016,103 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>JkEZREIYb6rOeHA1kobs.jpg</t>
+          <t>hKgGTjlfJVx3PXnZQt2C.jpg</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>wI1JVBtWmp1xoxqUE7oA.jpg</t>
+          <t>Hi4xPwgVEcIDusWhoMTU.jpg</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>dVeFO8kJeEMMYATMEKxj.jpg</t>
+          <t>u2e8JG9PSLPFiZRgMYMu.jpg</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>FwspKs8ggXcw3e8YFWSU.jpg</t>
+          <t>dv5VDJ3366FnkT6TosCV.jpg</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>catK9W3pY7518Gg6QPK0.jpg</t>
+          <t>iU9IOXrwl88MgBH23x3R.jpg</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>hKgGTjlfJVx3PXnZQt2C.jpg</t>
+          <t>5VSqqE0m6sfwlafxQPX3.jpg</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ThqgKcHlCi2Sw7X0NmeF.jpg</t>
+          <t>ZZPz5LmJQ7LipdDM2d2I.jpg</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>kfSCuiJQF9TVAT9rsQiM.jpg</t>
+          <t>XV6fb6yZgQyBhJtFC92a.jpg</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>YHHKW3AZ9rwEw7ONo1fK.jpg</t>
+          <t>5oJLFeatKa39JUcuRWzl.jpg</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fWHuujKxVtTd5ISFp6h3.jpg</t>
+          <t>Vp1DyjSe8vdTdq8znEcJ.jpg</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3136,247 +3136,247 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ZUIVjFLmqVJCdt7uxaYo.jpg</t>
+          <t>jmFHs0U83f1c4CRigKhc.jpg</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Chihuahua</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PrF1RdhStiKF4YVqBNM1.jpg</t>
+          <t>1UxreplO34TpR3sOKZRe.jpg</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>xS7UxjreyHzMGS9zERFw.jpg</t>
+          <t>TPT5MvHg6kmMPTs2Qv5K.jpg</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>7N2whQcQaT25dDWZ8B6e.jpg</t>
+          <t>fWHuujKxVtTd5ISFp6h3.jpg</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>KifmB4GUVpg4NMvuHmrY.jpg</t>
+          <t>CdJ8k6zfLHGpz8UaMRtl.jpg</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ppbTAu0J0R8rqGsfbzJe.jpg</t>
+          <t>CAY3XhaVyWkU2VNeDY3z.jpg</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>kiRvRM5VP1qVLp8a2PST.jpg</t>
+          <t>JP8V25QU7PFcRXYKyQrv.jpg</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>VPosFKwRpPd2Brxfkqxb.jpg</t>
+          <t>B6z6CxOZ0Ec6P4NAq58U.jpg</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SrB1BssNF9urLhTdOImj.jpg</t>
+          <t>OBZPMS8p1wUFWPCVBK2O.jpg</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>pec6kdfsJa0TabaatOA4.jpg</t>
+          <t>BNz2NjSjBOvjn9t3Stgh.jpg</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>qWxJFStcr9dlIKliZ0yZ.jpg</t>
+          <t>IkakoEgMAAx1z9DNxWgO.jpg</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SYvE0PV9DFSgkP7KJvki.jpg</t>
+          <t>hHJARAYlKPUgGiuj2aXk.jpg</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ad2YyxSs4ekAScMp1RBe.jpg</t>
+          <t>NtHtMThWujvQrkSmOc4L.jpg</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Bv2esF51KzGIKrofd5PV.jpg</t>
+          <t>Q8lSwfKFqd0UnNAj7GBg.jpg</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VlqIYNtU6QMXYHhKJzEP.jpg</t>
+          <t>ARnllfVYR2BTGIrYus2C.jpg</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ARnllfVYR2BTGIrYus2C.jpg</t>
+          <t>6iHs2Wip1dNaJvsYkP7j.jpg</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0D69LppfiM6saZx8HnkE.jpg</t>
+          <t>cO9hJgAxhnetObg0uzUu.jpg</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>qWQYHgjKyFmpfdbnNKds.jpg</t>
+          <t>X5nghqUOSWTPdRQ5OMDO.jpg</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>xgNT0RnHnTJNHIuTGh1g.jpg</t>
+          <t>2x8hZwXQ6ek3TNRVUz6r.jpg</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Dingo</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t7bzRqat0kB7xuvSrZWu.jpg</t>
+          <t>zxJUczli7baULBcKUFnN.jpg</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Lst1QOiPJfSwDCHqMIUP.jpg</t>
+          <t>Q2WqvjjQUdT86MroIQUh.jpg</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3388,91 +3388,91 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>FMFfFyyubk3yDZuOpNSH.jpg</t>
+          <t>ZUIVjFLmqVJCdt7uxaYo.jpg</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Malinois</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>b6dLcYK1q8MrHrayeJwW.jpg</t>
+          <t>qCCahq0UexJBhFdxvROw.jpg</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>qCCahq0UexJBhFdxvROw.jpg</t>
+          <t>oqKaUMkWyYI06QJNOBZM.jpg</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>NtHtMThWujvQrkSmOc4L.jpg</t>
+          <t>VlqIYNtU6QMXYHhKJzEP.jpg</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SRl9BjP3VXElA5l2DbsL.jpg</t>
+          <t>zWveARuR578KBnOs3J6O.jpg</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>y82Sjafu1iinKfJPXdcK.jpg</t>
+          <t>F7Dd0iE0mKXDBMXM1d9L.jpg</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>French Bulldog</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>horlz0hhHw9P4q7k3aXK.jpg</t>
+          <t>NAKXi7EKPSfgikQOUCOz.jpg</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DINx2P2j9NEzbez5LJLy.jpg</t>
+          <t>1vrolAo8emQSv83VgX1o.jpg</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3484,199 +3484,199 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>wVbfEqqnlbAuG00zG3QQ.jpg</t>
+          <t>ej5Ec1svRZFfrCW45NHP.jpg</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>JB4Qb1XLWGibREAhp5xQ.jpg</t>
+          <t>rSZTyrayle0E6SjpL7BO.jpg</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>5NdVuLUWCnWrHRAXn907.jpg</t>
+          <t>qWQYHgjKyFmpfdbnNKds.jpg</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>5VSqqE0m6sfwlafxQPX3.jpg</t>
+          <t>y986cfiIAsXQ3uZ2zHJd.jpg</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>XV6fb6yZgQyBhJtFC92a.jpg</t>
+          <t>Ux3DxZp5oL0XSaVkRqDp.jpg</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>h1UfPJ1OUZCKZvWDhSNd.jpg</t>
+          <t>w8v3l85LylKeMCT033Af.jpg</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Q2WqvjjQUdT86MroIQUh.jpg</t>
+          <t>NGyFAcB8U0uNdT3ZNXfc.jpg</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>WDHdfR2A1kHMLUwsq64e.jpg</t>
+          <t>3ZkP9J5Gl9FEaWKjnd6c.jpg</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GKIsYVOrtbzeVhXF69iO.jpg</t>
+          <t>KSAneCzQtDleHh9GZeav.jpg</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Nsj6hPxfc6edtHW9dIX4.jpg</t>
+          <t>1pzpRRk4PxuAJSq8yTz0.jpg</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Dingo</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>wXBvTJh3TX25BwuZ4Kll.jpg</t>
+          <t>ANuo5nWlXj2Ah5LQv6sZ.jpg</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>zWveARuR578KBnOs3J6O.jpg</t>
+          <t>UUcyg15mccEhGqqGjvFo.jpg</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>zXs26NtYZrj6NspetoVQ.jpg</t>
+          <t>6jKbUDUxDZWCk9W5qdos.jpg</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Airedale</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Bt45TAMd9tKdSLCfCHSs.jpg</t>
+          <t>q5900l3sA6N1FFREMlV8.jpg</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>pDSrWzYJgAVZ6kXWXy1f.jpg</t>
+          <t>07JI0uthLSrVgKgQxMSK.jpg</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BLRw15OjfmN4iyuJ2Pri.jpg</t>
+          <t>26WWAlpCvUaJ5JNChxOC.jpg</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TPT5MvHg6kmMPTs2Qv5K.jpg</t>
+          <t>NLRrgsbVp0YgbmST7hv5.jpg</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3688,163 +3688,163 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Ae0YLZk9f2sXHjSMXG7O.jpg</t>
+          <t>9I1sr4QxakphlAIiPFEe.jpg</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>German Sheperd</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Q8lSwfKFqd0UnNAj7GBg.jpg</t>
+          <t>23gXLPttrkxVXSkC6YPy.jpg</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>aMqWkQBUm765TxB3hJNs.jpg</t>
+          <t>4kX0P9HVx58nOQoAm4U6.jpg</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>WuWVbHJlodANxlkzsAIl.jpg</t>
+          <t>5LVgtnyoL8d4zzc8UTcT.jpg</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Airedale</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>lvH52Ol2kUZOgqVkKKPZ.jpg</t>
+          <t>RKBQZv47qlcLKVtAjcMb.jpg</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TnnpcDYuhNWxFTdfGqG8.jpg</t>
+          <t>y48i249f8SIaFe0rN5uf.jpg</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>XOjAFrSHTV2EwWdP07kU.jpg</t>
+          <t>Fwul0zq3cTcy2OrB6gIa.jpg</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>5epyvDsauBqN0fAsNGsk.jpg</t>
+          <t>Bv2esF51KzGIKrofd5PV.jpg</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>kcIaYnHkcYPY6xpq5Ue7.jpg</t>
+          <t>fPHRmb2rPdFtHUTg27pi.jpg</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>vdAff0xcZZMCIIOKUbMG.jpg</t>
+          <t>e75vuASNFCppxYGbOHBJ.jpg</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>OrKl9zE6HhJpkWCbQwbP.jpg</t>
+          <t>FwspKs8ggXcw3e8YFWSU.jpg</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>qo9wPiJzNQwUzlHCNshL.jpg</t>
+          <t>ZWT4s9wOrrw9wuxcDfmr.jpg</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CmWIkQN0trc1SBz21Hvi.jpg</t>
+          <t>7EmbZ2d0MtxxUVQwXxbl.jpg</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>iU9IOXrwl88MgBH23x3R.jpg</t>
+          <t>wbfmZ1Ft2JuqiRtD2o6S.jpg</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3856,103 +3856,103 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>EEh4nIaGdTdgUxNSI1Ya.jpg</t>
+          <t>SRl9BjP3VXElA5l2DbsL.jpg</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>dxTEUSmqDevi21Q8L9IT.jpg</t>
+          <t>jkmgLilg5tlN3Krp8Xcq.jpg</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>German Sheperd</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>o9xOLag5uy1JlNJimA1x.jpg</t>
+          <t>Y0dNzyOK0zcwDsbOHl9v.jpg</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Pug</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>AYKr7wPyIlN14MhSWiLA.jpg</t>
+          <t>qo9wPiJzNQwUzlHCNshL.jpg</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Bluetick</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>k45YDuHgbqFcSEGYfKWf.jpg</t>
+          <t>U1r5oBwZvpP4ZPZs6elm.jpg</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>yntZwouvs7mep8tsK0xd.jpg</t>
+          <t>LjMslbnS1VMwNno8am5f.jpg</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>KYb0ajbXIZwdCen8pyGB.jpg</t>
+          <t>GgAkv83AXljTalzGtTCu.jpg</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>lawooDFum3D76LJIj3ra.jpg</t>
+          <t>Sb0rH9HsfA0buS7V6zD5.jpg</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>n9ruf66B9VKCKQ4mP402.jpg</t>
+          <t>RB8hKmgwNdO6pujHoBYM.jpg</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3964,60 +3964,60 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>RKBQZv47qlcLKVtAjcMb.jpg</t>
+          <t>jo34qln64i831RhLse9D.jpg</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>Bluetick</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>c36kVkqlagGQU0FZTHe6.jpg</t>
+          <t>lePITfQ8EAHKgr8Dvzif.jpg</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Zg7Rl23zher1WD9bPDDW.jpg</t>
+          <t>8UNMKG1rgpizbHbf7sOH.jpg</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pug</t>
+          <t>French Bulldog</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>5oJLFeatKa39JUcuRWzl.jpg</t>
+          <t>xqa7USxDBT5xsAC27tcR.jpg</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Pekinese</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>vPthdCJA0biVIcNqn6VN.jpg</t>
+          <t>Ld93jJAEVRzy6rZufYst.jpg</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Newfoundland</t>
+          <t>Malinois</t>
         </is>
       </c>
     </row>
